--- a/Evaluation/eval001/sub0189/Classifcation Report.xlsx
+++ b/Evaluation/eval001/sub0189/Classifcation Report.xlsx
@@ -400,13 +400,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9326923076923077</v>
+        <v>0.9245283018867925</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9603960396039604</v>
+        <v>0.9702970297029703</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9463414634146341</v>
+        <v>0.9468599033816426</v>
       </c>
       <c r="E2" t="n">
         <v>101</v>
@@ -419,13 +419,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9591836734693877</v>
+        <v>0.96875</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9306930693069307</v>
+        <v>0.9207920792079208</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9447236180904524</v>
+        <v>0.9441624365482234</v>
       </c>
       <c r="E3" t="n">
         <v>101</v>
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9459379905808477</v>
+        <v>0.9466391509433962</v>
       </c>
       <c r="C5" t="n">
         <v>0.9455445544554455</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9455325407525432</v>
+        <v>0.945511169964933</v>
       </c>
       <c r="E5" t="n">
         <v>202</v>
@@ -476,13 +476,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9459379905808477</v>
+        <v>0.9466391509433963</v>
       </c>
       <c r="C6" t="n">
         <v>0.9455445544554455</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9455325407525432</v>
+        <v>0.945511169964933</v>
       </c>
       <c r="E6" t="n">
         <v>202</v>
